--- a/WIP/Documents/Requirements/Mockup/LamLD/Web/TaxiNet_ScreenDesign_Agent.xlsx
+++ b/WIP/Documents/Requirements/Mockup/LamLD/Web/TaxiNet_ScreenDesign_Agent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" tabRatio="824" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="824" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="01.Login" sheetId="19" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="465">
   <si>
     <t>Logo</t>
   </si>
@@ -356,6 +356,9 @@
     <t>Size</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Tìm</t>
   </si>
   <si>
@@ -1131,9 +1134,6 @@
   </si>
   <si>
     <t>EDIT CONTACT INFO (Sửa Thông Tin Liên Hệ)</t>
-  </si>
-  <si>
-    <t>Readonly</t>
   </si>
   <si>
     <t>Quốc Gia</t>
@@ -1498,6 +1498,9 @@
     <t>Link to login of Facebook</t>
   </si>
   <si>
+    <t>Có icon cho phép người dùng lựa chọn ngày tháng, không cho phép đến ngày trong tương lai</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
@@ -1516,265 +1519,259 @@
     <t>WAG07</t>
   </si>
   <si>
-    <t>Địa chỉ Email của người sử dụng</t>
-  </si>
-  <si>
-    <t>Mật khẩu của người sử dụng</t>
-  </si>
-  <si>
-    <t>Link tới Page hướng dẫn lấy lại mật khẩu</t>
-  </si>
-  <si>
-    <t>Link tới Page hướng dẫn đăng kí tài khoản mới</t>
-  </si>
-  <si>
-    <t>Đăng nhập vào hệ thống</t>
-  </si>
-  <si>
-    <t>Tên lái xe hoặc tên công ty chủ quản</t>
-  </si>
-  <si>
-    <t>địa chỉ email của người sử dụng</t>
-  </si>
-  <si>
-    <t>Tìm kiếm theo tài khoản hoặc tên lái xe</t>
-  </si>
-  <si>
-    <t>Danh sách các tài khoản tìm kiếm được</t>
-  </si>
-  <si>
-    <t>Số thứ tự các tài khoản tìm kiếm được</t>
-  </si>
-  <si>
-    <t>Tên tài khoản tìm kiếm được</t>
-  </si>
-  <si>
-    <t>Tên lái xe ứng với tài khoản</t>
-  </si>
-  <si>
-    <t>Số điện thoại của lái xe</t>
-  </si>
-  <si>
-    <t>Địa chỉ của lái xe</t>
-  </si>
-  <si>
-    <t>Tên của người sử dụng dịch vụ</t>
-  </si>
-  <si>
-    <t>Tên đăng nhập của người sử dụng</t>
+    <t>Mật khẩu cũ của người dùng</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới người dùng muốn đặt</t>
+  </si>
+  <si>
+    <t>Xác nhận mật khẩu mới</t>
+  </si>
+  <si>
+    <t>Nút lưu thông tin</t>
+  </si>
+  <si>
+    <t>Mật khẩu của người dùng</t>
+  </si>
+  <si>
+    <t>Nút đăng nhập</t>
+  </si>
+  <si>
+    <t>Link trợ giúp người dùng quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Link đăng kí tài khoản mới</t>
+  </si>
+  <si>
+    <t>Tài khoản đăng nhập</t>
+  </si>
+  <si>
+    <t>Có thể nhập tên lái xe hoặc doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Nút tìm kiếm</t>
+  </si>
+  <si>
+    <t>Số bản ghi muốn hiển thị</t>
+  </si>
+  <si>
+    <t>Số thứ tự các bản ghi được hiển thị</t>
+  </si>
+  <si>
+    <t>Tên tài khoản đăng nhập</t>
+  </si>
+  <si>
+    <t>Tên lái xe hoặc tên doanh nghiệp như đã nhập lúc đầu</t>
+  </si>
+  <si>
+    <t>Số điện thoại của lái xe hoặc doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Địa chỉ lái xe hoặc doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Tên của người sử dụng</t>
+  </si>
+  <si>
+    <t>Số điện thoại của người sử dụng</t>
   </si>
   <si>
     <t>Địa chỉ của người sử dụng</t>
   </si>
   <si>
-    <t>Số điện thoại của khách hàng</t>
-  </si>
-  <si>
-    <t>Tên nhân viên thực hiện</t>
-  </si>
-  <si>
-    <t>Số dư hiện tại trong tài khoản của khách hàng</t>
+    <t>Tên nhân viên thực hiện giao dịch</t>
+  </si>
+  <si>
+    <t>Số dư hiện tại trong tại khoản</t>
   </si>
   <si>
     <t>Số tiền muốn nạp</t>
   </si>
   <si>
-    <t>Xác nhận các thao tác</t>
-  </si>
-  <si>
-    <t>Thoát khỏi hệ thống</t>
-  </si>
-  <si>
-    <t>In hóa đơn</t>
+    <t>Nút xác nhận các thông tin vừa nhập</t>
+  </si>
+  <si>
+    <t>Nút thoát các thao tác đang thực hiện</t>
+  </si>
+  <si>
+    <t>Nút in hóa đơn</t>
   </si>
   <si>
     <t>Số dư sau khi nạp tiền</t>
   </si>
   <si>
-    <t>Tài khoản đăng nhập</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc</t>
+    <t>Tổng số tiền thu trong tháng</t>
+  </si>
+  <si>
+    <t>Số tiền được triết khấu</t>
+  </si>
+  <si>
+    <t>Tổng số tiền phải nộp trong tháng</t>
+  </si>
+  <si>
+    <t>Số tiền đã nộp tháng trước</t>
+  </si>
+  <si>
+    <t>Hiển thị số lần nộp tiền cho TaxiNet</t>
+  </si>
+  <si>
+    <t>Bảng tổng hợp của tháng</t>
+  </si>
+  <si>
+    <t>Bảng tổng hợp của năm</t>
+  </si>
+  <si>
+    <t>Tên đại lý</t>
+  </si>
+  <si>
+    <t>Thành phố nơi đại lý đặt trụ sở</t>
+  </si>
+  <si>
+    <t>Địa chỉ của đại lý</t>
+  </si>
+  <si>
+    <t>Số điện thoại của đại lý</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Thông tin cá nhân của người dùng</t>
+  </si>
+  <si>
+    <t>Tên người dùng</t>
+  </si>
+  <si>
+    <t>Họ và tên đệm của người dùng</t>
+  </si>
+  <si>
+    <t>Địa chỉ email của người dùng</t>
+  </si>
+  <si>
+    <t>Số di động của người dùng</t>
+  </si>
+  <si>
+    <t>Mã bưu điện của người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã khuyến mại </t>
+  </si>
+  <si>
+    <t>Địa chỉ của người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc gia </t>
+  </si>
+  <si>
+    <t>Cập nhật ảnh của đại lý</t>
+  </si>
+  <si>
+    <t>Từ ngày</t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
   </si>
   <si>
     <t>Lọc hóa đơn</t>
   </si>
   <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>Mã hóa đơn</t>
+  </si>
+  <si>
+    <t>Ngày thực hiện</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Tải về</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Account Login</t>
+  </si>
+  <si>
+    <t>Tác giả</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Show</t>
   </si>
   <si>
-    <t>Mã số hóa đơn</t>
+    <t>Refine Invoice</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Tên người thực hiện hóa đơn</t>
+  </si>
+  <si>
+    <t>Nút tải file mềm hóa đơn về</t>
+  </si>
+  <si>
+    <t>Nút hiển thị các bản ghi ở phía sau</t>
+  </si>
+  <si>
+    <t>Nút hiển thị các bản ghi ở phía trước</t>
   </si>
   <si>
     <t>Ngày thực hiện hóa đơn</t>
   </si>
   <si>
-    <t>Tải về</t>
-  </si>
-  <si>
-    <t>Login account</t>
-  </si>
-  <si>
-    <t>From date</t>
-  </si>
-  <si>
-    <t>To date</t>
-  </si>
-  <si>
-    <t>Invoice number</t>
-  </si>
-  <si>
-    <t>Invoice date</t>
-  </si>
-  <si>
-    <t>Tài khoản đăng nhập của người sử dụng</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu thực hiện hóa đơn</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc thực hiện hóa đơn</t>
-  </si>
-  <si>
-    <t>Mã số hóa đơn của người sử dụng</t>
-  </si>
-  <si>
-    <t>Ngày thực hiện hóa đơn của người sử dụng</t>
-  </si>
-  <si>
-    <t>Số tiền nạp trong lần thực hiện giao dịch</t>
-  </si>
-  <si>
-    <t>Tải về hóa đơn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lọc hóa đơn </t>
-  </si>
-  <si>
-    <t>Số hóa đơn tìm được</t>
-  </si>
-  <si>
-    <t>Số thứ tự của các hóa đơn tìm được</t>
-  </si>
-  <si>
-    <t>Số điện thoại để liên lạc với đại lý</t>
-  </si>
-  <si>
-    <t>Hiển thị tên đại lý</t>
-  </si>
-  <si>
-    <t>Mã bưu điện</t>
-  </si>
-  <si>
-    <t>Mã khuyến mại</t>
-  </si>
-  <si>
-    <t>Mã số thuế của đại lý</t>
-  </si>
-  <si>
-    <t>Thông tin cá nhân tài khoản đại lý của người sử dụng</t>
-  </si>
-  <si>
-    <t>Tên của người sử dụng</t>
-  </si>
-  <si>
-    <t>Họ và tên đệm của người sử dụng</t>
-  </si>
-  <si>
-    <t>Địa chỉ email của người sử dụng</t>
-  </si>
-  <si>
-    <t>Số điện thoại của người người sử dụng</t>
-  </si>
-  <si>
-    <t>Tài khoản đăng kí của người sử dụng</t>
-  </si>
-  <si>
-    <t>Nút sửa thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>Nút cập nhật lại ảnh hiển thị</t>
-  </si>
-  <si>
-    <t>Ngôn ngữ hiển thị</t>
-  </si>
-  <si>
-    <t>Mã số của đại lý</t>
-  </si>
-  <si>
-    <t>Tên đại lý</t>
-  </si>
-  <si>
-    <t>Thành phố nơi đại lý làm việc</t>
-  </si>
-  <si>
-    <t>Số điện thoại liên lạc với đại lý</t>
-  </si>
-  <si>
-    <t>Quốc gia nơi đại lý làm việc</t>
-  </si>
-  <si>
-    <t>Thông tin cá nhân của người sử dụng</t>
-  </si>
-  <si>
-    <t>Số điện thoại của người sử dụng</t>
-  </si>
-  <si>
-    <t>Nút lưu thông tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ 2 để liên lạc với đại lý </t>
-  </si>
-  <si>
-    <t>Hiển thị tên thành phố nơi đại lý làm việc</t>
-  </si>
-  <si>
-    <t>Địa chỉ cụ thể của đại lý</t>
-  </si>
-  <si>
-    <t>Địa chỉ 1 để liên lạc với đại lý</t>
-  </si>
-  <si>
-    <t>Mật khẩu cũ của người sử dụng</t>
-  </si>
-  <si>
-    <t>Nơi nhập mật khẩu mới</t>
-  </si>
-  <si>
-    <t>Xác nhận mật khẩu mới</t>
-  </si>
-  <si>
-    <t>Hiển thị tổng số tiền thu trong tháng hiện tại</t>
-  </si>
-  <si>
-    <t>Hiển thị tổng số tiền được triết khấu</t>
-  </si>
-  <si>
-    <t>Hiển thị số tiền đã nộp trong tháng</t>
-  </si>
-  <si>
-    <t>Hiển thị số tiền còn lại từ tháng trước đó</t>
-  </si>
-  <si>
-    <t>Hiện thì tổng số tiền cần phải nộp trong tháng này</t>
-  </si>
-  <si>
-    <t>Hiển thị số tiền cần phải nộp trong tháng hiện tại</t>
-  </si>
-  <si>
-    <t>Hiển thị số lần nộp tiền cho TaxiNet</t>
-  </si>
-  <si>
-    <t>Tháng hiện tại</t>
-  </si>
-  <si>
-    <t>Năm hiện tại</t>
-  </si>
-  <si>
-    <t>HyperLink</t>
+    <t>Nút thực hiện lọc hóa đơn</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu thực hiện lọc hóa đơn</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc lọc hóa đơn</t>
+  </si>
+  <si>
+    <t>Người nộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày </t>
+  </si>
+  <si>
+    <t>Hình thức nộp</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>Form to submit</t>
+  </si>
+  <si>
+    <t>Tổng số</t>
+  </si>
+  <si>
+    <t>Số thứ tự người nộp tiền</t>
+  </si>
+  <si>
+    <t>Tên người nộp</t>
+  </si>
+  <si>
+    <t>Ngày nộp</t>
+  </si>
+  <si>
+    <t>Số tiền nộp</t>
+  </si>
+  <si>
+    <t>Tổng số tiền đã nộp</t>
   </si>
 </sst>
 </file>
@@ -3097,23 +3094,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3133,14 +3121,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4051,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4396,7 +4393,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
@@ -4996,7 +4993,7 @@
     </row>
     <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5024,18 +5021,18 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" s="111"/>
       <c r="AD24" s="112"/>
       <c r="AF24" s="110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" s="111"/>
       <c r="AH24" s="111"/>
       <c r="AI24" s="112"/>
       <c r="AK24" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL24" s="111"/>
       <c r="AM24" s="111"/>
@@ -5044,7 +5041,7 @@
     </row>
     <row r="25" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -5104,7 +5101,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5134,11 +5131,11 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -5147,11 +5144,11 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -5163,22 +5160,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -5186,22 +5183,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="142" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="142">
         <v>50</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -5209,22 +5206,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="142">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -5235,19 +5232,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F8" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="142">
         <v>50</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -5258,19 +5255,19 @@
         <v>9</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="142">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -5278,22 +5275,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E10" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="142">
-        <v>10</v>
-      </c>
-      <c r="H10" s="144" t="s">
-        <v>429</v>
+        <v>5</v>
+      </c>
+      <c r="H10" s="143" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -5301,22 +5298,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E11" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="142">
-        <v>10</v>
-      </c>
-      <c r="H11" s="144" t="s">
-        <v>431</v>
+        <v>15</v>
+      </c>
+      <c r="H11" s="143" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -5324,22 +5321,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E12" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="144" t="s">
-        <v>432</v>
+        <v>88</v>
+      </c>
+      <c r="H12" s="143" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -5347,22 +5344,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E13" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="142">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" s="144" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -5370,22 +5367,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="142">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H14" s="144" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -5393,22 +5390,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E15" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="142">
         <v>50</v>
       </c>
-      <c r="H15" s="144" t="s">
-        <v>435</v>
+      <c r="H15" s="143" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -5416,22 +5413,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E16" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="142">
-        <v>10</v>
-      </c>
-      <c r="H16" s="144" t="s">
-        <v>436</v>
+        <v>20</v>
+      </c>
+      <c r="H16" s="143" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -5439,22 +5436,22 @@
         <v>12</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E17" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F17" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="142">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="G17" s="142" t="s">
+        <v>88</v>
       </c>
       <c r="H17" s="144" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -5462,22 +5459,22 @@
         <v>13</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E18" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="142">
-        <v>10</v>
-      </c>
-      <c r="H18" s="144" t="s">
-        <v>430</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="143" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -5485,22 +5482,22 @@
         <v>14</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E19" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F19" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="144" t="s">
-        <v>438</v>
+        <v>88</v>
+      </c>
+      <c r="H19" s="143" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -5508,22 +5505,22 @@
         <v>15</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D20" s="142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="144" t="s">
-        <v>439</v>
+        <v>88</v>
+      </c>
+      <c r="H20" s="143" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -5531,22 +5528,22 @@
         <v>16</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E21" s="142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F21" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" s="144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5554,22 +5551,22 @@
         <v>17</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E22" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="G22" s="142">
-        <v>20</v>
-      </c>
-      <c r="H22" s="144" t="s">
-        <v>440</v>
+        <v>50</v>
+      </c>
+      <c r="H22" s="143" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -5583,16 +5580,16 @@
         <v>359</v>
       </c>
       <c r="E23" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="142">
-        <v>10</v>
-      </c>
-      <c r="H23" s="144" t="s">
-        <v>441</v>
+        <v>36</v>
+      </c>
+      <c r="G23" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="143" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -5633,7 +5630,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -5642,7 +5639,7 @@
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -5678,7 +5675,7 @@
       <c r="C35" s="155"/>
       <c r="D35" s="155"/>
       <c r="E35" s="156" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -5714,7 +5711,7 @@
       </c>
       <c r="C42" s="158"/>
       <c r="D42" s="158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="151"/>
@@ -5761,7 +5758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
@@ -5809,7 +5806,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
@@ -5852,7 +5849,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
@@ -5914,7 +5911,7 @@
       <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -5940,7 +5937,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -5998,7 +5995,7 @@
     <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70"/>
       <c r="C6" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -6009,7 +6006,7 @@
       <c r="J6" s="85"/>
       <c r="K6" s="8"/>
       <c r="L6" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -6044,7 +6041,7 @@
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -6088,7 +6085,7 @@
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -6099,7 +6096,7 @@
       <c r="J8" s="86"/>
       <c r="K8" s="8"/>
       <c r="L8" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="202"/>
@@ -6121,7 +6118,7 @@
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6136,10 +6133,10 @@
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
       <c r="P9" s="203" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="231" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R9" s="232"/>
       <c r="S9" s="232"/>
@@ -6148,7 +6145,7 @@
       <c r="V9" s="232"/>
       <c r="W9" s="233"/>
       <c r="X9" s="120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
@@ -6160,7 +6157,7 @@
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
       <c r="AH9" s="267" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI9" s="268"/>
       <c r="AJ9" s="268"/>
@@ -6173,7 +6170,7 @@
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -6188,10 +6185,10 @@
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
       <c r="P10" s="203" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="231" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R10" s="232"/>
       <c r="S10" s="232"/>
@@ -6200,7 +6197,7 @@
       <c r="V10" s="232"/>
       <c r="W10" s="233"/>
       <c r="X10" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y10" s="102"/>
       <c r="Z10" s="102"/>
@@ -6223,7 +6220,7 @@
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -6238,7 +6235,7 @@
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="203" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="231"/>
       <c r="R11" s="232"/>
@@ -6282,19 +6279,19 @@
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="203" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q12" s="287" t="s">
         <v>222</v>
       </c>
-      <c r="R12" s="288"/>
-      <c r="S12" s="288"/>
-      <c r="T12" s="288"/>
-      <c r="U12" s="288"/>
-      <c r="V12" s="288"/>
-      <c r="W12" s="289"/>
+      <c r="Q12" s="275" t="s">
+        <v>223</v>
+      </c>
+      <c r="R12" s="276"/>
+      <c r="S12" s="276"/>
+      <c r="T12" s="276"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="276"/>
+      <c r="W12" s="277"/>
       <c r="X12" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
@@ -6330,10 +6327,10 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="203" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="231" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R13" s="232"/>
       <c r="S13" s="232"/>
@@ -6342,7 +6339,7 @@
       <c r="V13" s="232"/>
       <c r="W13" s="233"/>
       <c r="X13" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y13" s="31"/>
       <c r="Z13" s="31"/>
@@ -6378,15 +6375,15 @@
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="203" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q14" s="287"/>
-      <c r="R14" s="288"/>
-      <c r="S14" s="288"/>
-      <c r="T14" s="288"/>
-      <c r="U14" s="288"/>
-      <c r="V14" s="288"/>
-      <c r="W14" s="289"/>
+        <v>224</v>
+      </c>
+      <c r="Q14" s="275"/>
+      <c r="R14" s="276"/>
+      <c r="S14" s="276"/>
+      <c r="T14" s="276"/>
+      <c r="U14" s="276"/>
+      <c r="V14" s="276"/>
+      <c r="W14" s="277"/>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
@@ -6422,19 +6419,19 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="203" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q15" s="281" t="s">
         <v>197</v>
       </c>
-      <c r="R15" s="282"/>
-      <c r="S15" s="282"/>
-      <c r="T15" s="282"/>
-      <c r="U15" s="282"/>
-      <c r="V15" s="282"/>
-      <c r="W15" s="283"/>
+      <c r="Q15" s="278" t="s">
+        <v>198</v>
+      </c>
+      <c r="R15" s="279"/>
+      <c r="S15" s="279"/>
+      <c r="T15" s="279"/>
+      <c r="U15" s="279"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="280"/>
       <c r="X15" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
@@ -6468,7 +6465,7 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -6501,10 +6498,10 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="203" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R17" s="231">
         <v>912210727</v>
@@ -6515,7 +6512,7 @@
       <c r="V17" s="232"/>
       <c r="W17" s="233"/>
       <c r="X17" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
@@ -6593,19 +6590,19 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="203" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q19" s="281" t="s">
         <v>202</v>
       </c>
-      <c r="R19" s="282"/>
-      <c r="S19" s="282"/>
-      <c r="T19" s="282"/>
-      <c r="U19" s="282"/>
-      <c r="V19" s="282"/>
-      <c r="W19" s="283"/>
+      <c r="Q19" s="278" t="s">
+        <v>203</v>
+      </c>
+      <c r="R19" s="279"/>
+      <c r="S19" s="279"/>
+      <c r="T19" s="279"/>
+      <c r="U19" s="279"/>
+      <c r="V19" s="279"/>
+      <c r="W19" s="280"/>
       <c r="X19" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
@@ -6639,7 +6636,7 @@
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
       <c r="N20" s="36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O20" s="102"/>
       <c r="P20" s="102"/>
@@ -6714,7 +6711,7 @@
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="256" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="256"/>
       <c r="E22" s="256"/>
@@ -6725,7 +6722,7 @@
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -6760,7 +6757,7 @@
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="257" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="257"/>
       <c r="E23" s="257"/>
@@ -6775,10 +6772,10 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R23" s="31"/>
       <c r="S23" s="31"/>
@@ -6808,7 +6805,7 @@
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="257" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="258"/>
       <c r="E24" s="258"/>
@@ -6823,10 +6820,10 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="203" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
@@ -6856,7 +6853,7 @@
     <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -6871,19 +6868,19 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="203" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q25" s="284" t="s">
         <v>210</v>
       </c>
-      <c r="R25" s="285"/>
-      <c r="S25" s="285"/>
-      <c r="T25" s="285"/>
-      <c r="U25" s="285"/>
-      <c r="V25" s="285"/>
-      <c r="W25" s="286"/>
+      <c r="Q25" s="281" t="s">
+        <v>211</v>
+      </c>
+      <c r="R25" s="282"/>
+      <c r="S25" s="282"/>
+      <c r="T25" s="282"/>
+      <c r="U25" s="282"/>
+      <c r="V25" s="282"/>
+      <c r="W25" s="283"/>
       <c r="X25" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
@@ -6906,7 +6903,7 @@
     <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -6919,19 +6916,19 @@
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="P26" s="197" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q26" s="275" t="s">
-        <v>224</v>
-      </c>
-      <c r="R26" s="276"/>
-      <c r="S26" s="276"/>
-      <c r="T26" s="276"/>
-      <c r="U26" s="276"/>
-      <c r="V26" s="276"/>
-      <c r="W26" s="277"/>
+        <v>222</v>
+      </c>
+      <c r="Q26" s="284" t="s">
+        <v>225</v>
+      </c>
+      <c r="R26" s="285"/>
+      <c r="S26" s="285"/>
+      <c r="T26" s="285"/>
+      <c r="U26" s="285"/>
+      <c r="V26" s="285"/>
+      <c r="W26" s="286"/>
       <c r="X26" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
@@ -7009,21 +7006,21 @@
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
       <c r="P28" s="203" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R28" s="31"/>
-      <c r="S28" s="278">
+      <c r="S28" s="287">
         <v>912210727</v>
       </c>
-      <c r="T28" s="279"/>
-      <c r="U28" s="279"/>
-      <c r="V28" s="279"/>
-      <c r="W28" s="280"/>
+      <c r="T28" s="288"/>
+      <c r="U28" s="288"/>
+      <c r="V28" s="288"/>
+      <c r="W28" s="289"/>
       <c r="X28" s="209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
@@ -7059,10 +7056,10 @@
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
       <c r="P29" s="203" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="231" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R29" s="232"/>
       <c r="S29" s="232"/>
@@ -7071,7 +7068,7 @@
       <c r="V29" s="232"/>
       <c r="W29" s="233"/>
       <c r="X29" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
@@ -7103,7 +7100,7 @@
       <c r="J30" s="87"/>
       <c r="K30" s="31"/>
       <c r="L30" s="63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
@@ -7151,10 +7148,10 @@
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
       <c r="P31" s="203" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="198" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
@@ -7197,10 +7194,10 @@
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
       <c r="P32" s="203" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R32" s="31"/>
       <c r="S32" s="31"/>
@@ -7313,7 +7310,7 @@
     </row>
     <row r="35" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -7331,7 +7328,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
@@ -7359,7 +7356,7 @@
     </row>
     <row r="36" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -7387,18 +7384,18 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" s="111"/>
       <c r="AD36" s="112"/>
       <c r="AF36" s="110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" s="111"/>
       <c r="AH36" s="111"/>
       <c r="AI36" s="112"/>
       <c r="AK36" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL36" s="111"/>
       <c r="AM36" s="111"/>
@@ -7407,7 +7404,7 @@
     </row>
     <row r="37" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -7451,7 +7448,7 @@
     </row>
     <row r="40" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="14"/>
       <c r="AD40" s="31"/>
@@ -7979,6 +7976,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="Q9:W9"/>
     <mergeCell ref="AH9:AN15"/>
     <mergeCell ref="Q10:W10"/>
     <mergeCell ref="Q11:W11"/>
@@ -7986,17 +7994,6 @@
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="B1:G4"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -8022,7 +8019,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8052,7 +8049,7 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
@@ -8065,11 +8062,11 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -8081,22 +8078,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -8104,22 +8101,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="142" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E6" s="142" t="s">
         <v>281</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="142">
         <v>50</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -8127,22 +8124,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="142">
         <v>50</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -8150,22 +8147,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="142" t="s">
         <v>281</v>
       </c>
       <c r="F8" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="142">
         <v>50</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -8176,19 +8173,19 @@
         <v>9</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="142" t="s">
         <v>281</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" s="142">
         <v>20</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -8196,22 +8193,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E10" s="142" t="s">
         <v>281</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G10" s="142">
         <v>5</v>
       </c>
-      <c r="H10" s="144" t="s">
-        <v>429</v>
+      <c r="H10" s="143" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -8219,22 +8216,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E11" s="142" t="s">
         <v>281</v>
       </c>
       <c r="F11" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" s="142">
         <v>15</v>
       </c>
-      <c r="H11" s="144" t="s">
-        <v>431</v>
+      <c r="H11" s="143" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -8242,22 +8239,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E12" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G12" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="144" t="s">
-        <v>446</v>
+        <v>88</v>
+      </c>
+      <c r="H12" s="143" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -8265,22 +8262,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E13" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" s="142">
         <v>20</v>
       </c>
       <c r="H13" s="144" t="s">
-        <v>278</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -8288,22 +8285,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="142">
         <v>50</v>
       </c>
       <c r="H14" s="144" t="s">
-        <v>278</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -8311,22 +8308,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E15" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F15" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G15" s="142">
         <v>50</v>
       </c>
-      <c r="H15" s="144" t="s">
-        <v>435</v>
+      <c r="H15" s="143" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -8334,22 +8331,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E16" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F16" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G16" s="142">
         <v>20</v>
       </c>
-      <c r="H16" s="144" t="s">
-        <v>447</v>
+      <c r="H16" s="143" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -8357,22 +8354,22 @@
         <v>12</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E17" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F17" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G17" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="144" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -8380,22 +8377,22 @@
         <v>13</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E18" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G18" s="142">
         <v>20</v>
       </c>
-      <c r="H18" s="144" t="s">
-        <v>430</v>
+      <c r="H18" s="143" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -8403,22 +8400,22 @@
         <v>14</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E19" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F19" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G19" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="144" t="s">
-        <v>448</v>
+        <v>88</v>
+      </c>
+      <c r="H19" s="143" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -8426,22 +8423,22 @@
         <v>15</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D20" s="142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G20" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="144" t="s">
-        <v>439</v>
+        <v>88</v>
+      </c>
+      <c r="H20" s="143" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -8449,22 +8446,22 @@
         <v>16</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E21" s="142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F21" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G21" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" s="144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -8472,22 +8469,22 @@
         <v>17</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E22" s="142" t="s">
         <v>281</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="G22" s="142">
         <v>50</v>
       </c>
-      <c r="H22" s="144" t="s">
-        <v>449</v>
+      <c r="H22" s="143" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -8501,16 +8498,16 @@
         <v>280</v>
       </c>
       <c r="E23" s="142" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F23" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="142">
-        <v>20</v>
-      </c>
-      <c r="H23" s="144" t="s">
-        <v>445</v>
+        <v>36</v>
+      </c>
+      <c r="G23" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="143" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -8551,7 +8548,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -8560,7 +8557,7 @@
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -8596,7 +8593,7 @@
       <c r="C35" s="155"/>
       <c r="D35" s="155"/>
       <c r="E35" s="156" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -8631,10 +8628,10 @@
         <v>34</v>
       </c>
       <c r="C42" s="158" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="151"/>
@@ -8729,7 +8726,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
@@ -8772,7 +8769,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
@@ -8834,7 +8831,7 @@
       <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -8860,7 +8857,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -8918,7 +8915,7 @@
     <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70"/>
       <c r="C6" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -8929,7 +8926,7 @@
       <c r="J6" s="85"/>
       <c r="K6" s="8"/>
       <c r="L6" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -8964,7 +8961,7 @@
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -9008,7 +9005,7 @@
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -9016,7 +9013,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J8" s="86"/>
       <c r="K8" s="8"/>
@@ -9025,7 +9022,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
       <c r="P8" s="203" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="231"/>
       <c r="R8" s="232"/>
@@ -9035,7 +9032,7 @@
       <c r="V8" s="232"/>
       <c r="W8" s="233"/>
       <c r="X8" s="120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
@@ -9053,7 +9050,7 @@
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -9086,7 +9083,7 @@
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -9101,7 +9098,7 @@
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
       <c r="P10" s="203" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="231"/>
       <c r="R10" s="232"/>
@@ -9111,7 +9108,7 @@
       <c r="V10" s="232"/>
       <c r="W10" s="233"/>
       <c r="X10" s="120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y10" s="102"/>
       <c r="Z10" s="102"/>
@@ -9134,7 +9131,7 @@
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -9181,7 +9178,7 @@
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="203" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="231"/>
       <c r="R12" s="232"/>
@@ -9191,7 +9188,7 @@
       <c r="V12" s="232"/>
       <c r="W12" s="233"/>
       <c r="X12" s="120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
@@ -9586,7 +9583,7 @@
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="256" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="256"/>
       <c r="E22" s="256"/>
@@ -9630,7 +9627,7 @@
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="257" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="257"/>
       <c r="E23" s="257"/>
@@ -9674,7 +9671,7 @@
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="257" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="258"/>
       <c r="E24" s="258"/>
@@ -9718,7 +9715,7 @@
     <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -9762,7 +9759,7 @@
     <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -10141,7 +10138,7 @@
     </row>
     <row r="35" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -10159,7 +10156,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
@@ -10187,7 +10184,7 @@
     </row>
     <row r="36" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -10215,18 +10212,18 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" s="111"/>
       <c r="AD36" s="112"/>
       <c r="AF36" s="110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" s="111"/>
       <c r="AH36" s="111"/>
       <c r="AI36" s="112"/>
       <c r="AK36" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL36" s="111"/>
       <c r="AM36" s="111"/>
@@ -10235,7 +10232,7 @@
     </row>
     <row r="37" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -10279,7 +10276,7 @@
     </row>
     <row r="40" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="14"/>
       <c r="AD40" s="31"/>
@@ -10807,6 +10804,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
@@ -10816,13 +10820,6 @@
     <mergeCell ref="Q12:W12"/>
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" location="'04.ContactInfo'!A1" display="Thông Tin Liên Hệ"/>
@@ -10870,11 +10867,11 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -10883,7 +10880,7 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
@@ -10899,22 +10896,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -10931,13 +10928,13 @@
         <v>293</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="142">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>453</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -10954,13 +10951,13 @@
         <v>293</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="142">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -10971,19 +10968,19 @@
         <v>30</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="142" t="s">
         <v>294</v>
       </c>
       <c r="F8" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="142">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -10991,22 +10988,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E9" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G9" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -11173,7 +11170,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11182,7 +11179,7 @@
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -11251,7 +11248,7 @@
       </c>
       <c r="C42" s="158"/>
       <c r="D42" s="158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="151"/>
@@ -11298,7 +11295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -11348,7 +11345,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
@@ -11391,7 +11388,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
@@ -11453,7 +11450,7 @@
       <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -11479,7 +11476,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -11537,7 +11534,7 @@
     <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70"/>
       <c r="C6" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -11583,7 +11580,7 @@
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -11631,7 +11628,7 @@
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -11639,7 +11636,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J8" s="86"/>
       <c r="K8" s="8"/>
@@ -11676,7 +11673,7 @@
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -11692,7 +11689,7 @@
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -11714,7 +11711,7 @@
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -11878,7 +11875,7 @@
         <v>34</v>
       </c>
       <c r="M17" s="91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N17" s="92"/>
       <c r="O17" s="92"/>
@@ -11898,7 +11895,7 @@
       <c r="AA17" s="92"/>
       <c r="AB17" s="92"/>
       <c r="AC17" s="92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD17" s="93"/>
       <c r="AE17" s="93"/>
@@ -12105,7 +12102,7 @@
     <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="256" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="256"/>
       <c r="E22" s="256"/>
@@ -12153,7 +12150,7 @@
     <row r="23" spans="2:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="257" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="257"/>
       <c r="E23" s="257"/>
@@ -12209,7 +12206,7 @@
     <row r="24" spans="2:48" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="257" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="258"/>
       <c r="E24" s="258"/>
@@ -12260,7 +12257,7 @@
     <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -12311,7 +12308,7 @@
     <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -12400,7 +12397,7 @@
     </row>
     <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -12418,7 +12415,7 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
@@ -12446,7 +12443,7 @@
     </row>
     <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -12474,18 +12471,18 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" s="111"/>
       <c r="AD29" s="112"/>
       <c r="AF29" s="110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" s="111"/>
       <c r="AH29" s="111"/>
       <c r="AI29" s="112"/>
       <c r="AK29" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL29" s="111"/>
       <c r="AM29" s="111"/>
@@ -12494,7 +12491,7 @@
     </row>
     <row r="30" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -12538,7 +12535,7 @@
     </row>
     <row r="33" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="14"/>
       <c r="AD33" s="31"/>
@@ -13072,17 +13069,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AA26:AD26"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AA26:AD26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -13105,8 +13102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13136,11 +13133,11 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -13149,7 +13146,7 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
@@ -13165,22 +13162,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -13194,16 +13191,16 @@
         <v>326</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="142">
         <v>2</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -13217,16 +13214,16 @@
         <v>327</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="142">
         <v>4</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -13240,16 +13237,16 @@
         <v>337</v>
       </c>
       <c r="E8" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="142">
-        <v>30</v>
+      <c r="G8" s="142" t="s">
+        <v>88</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -13263,16 +13260,16 @@
         <v>330</v>
       </c>
       <c r="E9" s="142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -13286,16 +13283,16 @@
         <v>336</v>
       </c>
       <c r="E10" s="142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="144" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -13309,16 +13306,16 @@
         <v>335</v>
       </c>
       <c r="E11" s="142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F11" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="144" t="s">
-        <v>458</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -13332,16 +13329,16 @@
         <v>339</v>
       </c>
       <c r="E12" s="142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="144" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -13355,16 +13352,16 @@
         <v>341</v>
       </c>
       <c r="E13" s="142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="144" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -13378,13 +13375,13 @@
         <v>344</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="144" t="s">
         <v>348</v>
@@ -13401,71 +13398,155 @@
         <v>347</v>
       </c>
       <c r="E15" s="142" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F15" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="144" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="141">
+        <v>10.1</v>
+      </c>
+      <c r="C16" s="142" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="144" t="s">
+      <c r="F16" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="142">
+        <v>10</v>
+      </c>
+      <c r="H16" s="144" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="141">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" s="142" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="142">
+        <v>30</v>
+      </c>
+      <c r="H17" s="144" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="141">
+        <v>10.3</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>455</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="144" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="144"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="144"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="144"/>
-    </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="144"/>
+      <c r="B19" s="141">
+        <v>10.4</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>436</v>
+      </c>
+      <c r="D19" s="142" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="144"/>
+      <c r="B20" s="141">
+        <v>10.5</v>
+      </c>
+      <c r="C20" s="142" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" s="142" t="s">
+        <v>458</v>
+      </c>
+      <c r="E20" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="144" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="144"/>
+      <c r="B21" s="141">
+        <v>10.6</v>
+      </c>
+      <c r="C21" s="142" t="s">
+        <v>459</v>
+      </c>
+      <c r="D21" s="142" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="144" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="141"/>
@@ -13523,7 +13604,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -13531,10 +13612,10 @@
         <v>34</v>
       </c>
       <c r="C31" s="150" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -13547,10 +13628,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="153" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="153" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -13558,10 +13639,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -13569,10 +13650,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
         <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="2:8" s="156" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13580,13 +13661,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="155" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="155" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" s="156" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -13594,7 +13675,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36"/>
     </row>
@@ -13603,7 +13684,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="130" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -13611,7 +13692,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="130" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -13619,7 +13700,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="130" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -13627,7 +13708,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -13635,10 +13716,10 @@
         <v>34</v>
       </c>
       <c r="C42" s="158" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="151"/>
@@ -13650,10 +13731,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -13661,10 +13742,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
         <v>107</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -13672,10 +13753,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="130" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -13683,10 +13764,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="130" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -13704,8 +13785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13735,11 +13816,11 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -13748,7 +13829,7 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
@@ -13764,22 +13845,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -13793,39 +13874,39 @@
         <v>371</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G6" s="142">
+        <v>10</v>
       </c>
       <c r="H6" s="143" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="141">
         <v>2</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E7" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="142" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" s="142" t="s">
-        <v>85</v>
       </c>
       <c r="G7" s="142">
         <v>50</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -13836,19 +13917,19 @@
         <v>363</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E8" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="142" t="s">
-        <v>85</v>
-      </c>
       <c r="G8" s="142">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -13856,22 +13937,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D9" s="142" t="s">
         <v>369</v>
       </c>
       <c r="E9" s="142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="142" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G9" s="142"/>
       <c r="H9" s="143" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -13882,19 +13961,17 @@
         <v>365</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E10" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="142" t="s">
-        <v>87</v>
-      </c>
+      <c r="G10" s="142"/>
       <c r="H10" s="144" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -13905,19 +13982,17 @@
         <v>367</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E11" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="142" t="s">
-        <v>87</v>
-      </c>
+      <c r="G11" s="142"/>
       <c r="H11" s="144" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -14141,7 +14216,7 @@
   <dimension ref="B1:BJ48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14385,7 +14460,7 @@
     </row>
     <row r="5" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="7"/>
@@ -14395,7 +14470,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="65"/>
       <c r="J5" s="195" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -14429,7 +14504,7 @@
     </row>
     <row r="6" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -14465,12 +14540,12 @@
     </row>
     <row r="7" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -14484,7 +14559,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="189" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S7" s="243"/>
       <c r="T7" s="244"/>
@@ -14510,7 +14585,7 @@
     </row>
     <row r="8" spans="2:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -14527,7 +14602,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="189" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S8" s="243"/>
       <c r="T8" s="244"/>
@@ -14543,7 +14618,7 @@
       <c r="AD8" s="245"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="246" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG8" s="247"/>
       <c r="AH8" s="247"/>
@@ -14555,7 +14630,7 @@
     </row>
     <row r="9" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -14596,7 +14671,7 @@
     </row>
     <row r="10" spans="2:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="7"/>
@@ -14617,26 +14692,26 @@
       <c r="H11" s="7"/>
       <c r="I11" s="67"/>
       <c r="J11" s="64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P11" s="182">
         <v>10</v>
       </c>
       <c r="Q11" s="183"/>
       <c r="R11" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ11" s="172" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK11" s="170"/>
       <c r="AL11" s="170"/>
       <c r="AM11" s="171"/>
       <c r="AO11" s="172" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AP11" s="170"/>
       <c r="AQ11" s="171"/>
@@ -14656,14 +14731,14 @@
       </c>
       <c r="K12" s="161"/>
       <c r="L12" s="160" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" s="162"/>
       <c r="N12" s="162"/>
       <c r="O12" s="162"/>
       <c r="P12" s="161"/>
       <c r="Q12" s="160" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R12" s="162"/>
       <c r="S12" s="162"/>
@@ -14749,7 +14824,7 @@
         <v>16</v>
       </c>
       <c r="AN13" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO13" s="50"/>
       <c r="AP13" s="50"/>
@@ -14806,7 +14881,7 @@
         <v>17</v>
       </c>
       <c r="AN14" s="52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO14" s="53"/>
       <c r="AP14" s="53"/>
@@ -15005,7 +15080,7 @@
       <c r="B19" s="11"/>
       <c r="H19" s="86"/>
       <c r="J19" s="180" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="180"/>
       <c r="L19" s="181"/>
@@ -15133,7 +15208,7 @@
     </row>
     <row r="23" spans="2:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -15151,7 +15226,7 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
@@ -15181,7 +15256,7 @@
     </row>
     <row r="24" spans="2:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -15209,18 +15284,18 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" s="111"/>
       <c r="AD24" s="112"/>
       <c r="AF24" s="110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" s="111"/>
       <c r="AH24" s="111"/>
       <c r="AI24" s="112"/>
       <c r="AK24" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL24" s="111"/>
       <c r="AM24" s="111"/>
@@ -15231,7 +15306,7 @@
     </row>
     <row r="25" spans="2:44" s="78" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -15279,7 +15354,7 @@
     <row r="28" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="196" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -15582,7 +15657,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15612,11 +15687,11 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -15625,11 +15700,11 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -15641,22 +15716,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -15664,22 +15739,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="142" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E6" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="142" t="s">
         <v>86</v>
-      </c>
-      <c r="F6" s="142" t="s">
-        <v>85</v>
       </c>
       <c r="G6" s="142">
         <v>50</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -15687,22 +15762,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E7" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="142" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" s="142" t="s">
-        <v>85</v>
       </c>
       <c r="G7" s="142">
         <v>50</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -15710,22 +15785,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E8" s="142" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="F8" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G8" s="142">
+        <v>30</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -15733,22 +15808,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9" s="142" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -15759,19 +15834,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="142" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="142">
         <v>10</v>
       </c>
       <c r="H10" s="144" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -15779,22 +15854,22 @@
         <v>4.2</v>
       </c>
       <c r="C11" s="194" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11" s="142" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="142">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H11" s="144" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -15802,22 +15877,22 @@
         <v>4.3</v>
       </c>
       <c r="C12" s="194" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E12" s="142" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="142">
         <v>30</v>
       </c>
       <c r="H12" s="144" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -15825,22 +15900,22 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C13" s="194" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" s="142" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="142">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="G13" s="142" t="s">
+        <v>88</v>
       </c>
       <c r="H13" s="144" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -15851,19 +15926,19 @@
         <v>7</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="142">
         <v>50</v>
       </c>
       <c r="H14" s="144" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -15871,22 +15946,22 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C15" s="194" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E15" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="142" t="s">
-        <v>87</v>
-      </c>
       <c r="G15" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -15999,7 +16074,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -16008,7 +16083,7 @@
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -16044,7 +16119,7 @@
       <c r="C35" s="155"/>
       <c r="D35" s="155"/>
       <c r="E35" s="156" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -16080,7 +16155,7 @@
       </c>
       <c r="C42" s="158"/>
       <c r="D42" s="158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="151"/>
@@ -16139,7 +16214,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16161,10 +16236,10 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="188" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -16177,7 +16252,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="187" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -16193,10 +16268,10 @@
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>118</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -16209,10 +16284,10 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="188" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" s="221" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -16225,7 +16300,7 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="188" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>353</v>
@@ -16241,7 +16316,7 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="188" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>350</v>
@@ -16257,7 +16332,7 @@
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="187" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>26</v>
@@ -16273,7 +16348,7 @@
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="188" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>27</v>
@@ -16297,13 +16372,13 @@
       <c r="E12" s="191"/>
       <c r="F12" s="192"/>
       <c r="G12" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H12" s="188" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="200" t="s">
         <v>180</v>
-      </c>
-      <c r="I12" s="200" t="s">
-        <v>179</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="3"/>
@@ -16311,10 +16386,10 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="190" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -16344,7 +16419,7 @@
       <c r="D15" s="253"/>
       <c r="E15" s="186"/>
       <c r="F15" s="254" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" s="255"/>
       <c r="H15" s="32"/>
@@ -16556,7 +16631,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16586,11 +16661,11 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -16599,11 +16674,11 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -16615,22 +16690,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -16641,19 +16716,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" s="142">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -16661,22 +16736,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>138</v>
+        <v>397</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" s="142">
         <v>50</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -16687,19 +16762,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F8" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" s="142">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -16710,19 +16785,19 @@
         <v>9</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="142">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="G9" s="142" t="s">
+        <v>88</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -16730,22 +16805,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="142">
         <v>30</v>
       </c>
       <c r="H10" s="144" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -16756,19 +16831,19 @@
         <v>24</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E11" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="144" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -16776,22 +16851,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E12" s="142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G12" s="142">
+        <v>10</v>
       </c>
       <c r="H12" s="144" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -16802,19 +16877,19 @@
         <v>30</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="144" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -16825,19 +16900,19 @@
         <v>31</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="144" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -16845,22 +16920,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" s="142" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G15" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="144" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -16868,22 +16943,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="142" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="142" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="142" t="s">
-        <v>138</v>
-      </c>
       <c r="F16" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G16" s="142">
+        <v>10</v>
       </c>
       <c r="H16" s="144" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -16891,22 +16966,22 @@
         <v>12</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D17" s="142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F17" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="142" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G17" s="142">
+        <v>20</v>
       </c>
       <c r="H17" s="144" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -16914,22 +16989,22 @@
         <v>13</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E18" s="142" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="142">
+        <v>10</v>
+      </c>
+      <c r="H18" s="144" t="s">
         <v>184</v>
-      </c>
-      <c r="F18" s="142" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="144" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -17015,7 +17090,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -17024,7 +17099,7 @@
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -17093,7 +17168,7 @@
       </c>
       <c r="C42" s="158"/>
       <c r="D42" s="158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="151"/>
@@ -17140,8 +17215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17188,7 +17263,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
@@ -17231,11 +17306,11 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="201" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
@@ -17295,7 +17370,7 @@
       <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -17377,7 +17452,7 @@
     <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70"/>
       <c r="C6" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -17388,7 +17463,7 @@
       <c r="J6" s="85"/>
       <c r="K6" s="8"/>
       <c r="L6" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -17423,7 +17498,7 @@
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -17434,7 +17509,7 @@
       <c r="J7" s="86"/>
       <c r="K7" s="8"/>
       <c r="L7" s="259" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M7" s="259"/>
       <c r="N7" s="259"/>
@@ -17469,20 +17544,20 @@
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="86"/>
       <c r="K8" s="8"/>
       <c r="N8" s="197" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O8" s="260"/>
       <c r="P8" s="261"/>
@@ -17515,7 +17590,7 @@
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -17542,7 +17617,7 @@
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -17553,7 +17628,7 @@
       <c r="J10" s="86"/>
       <c r="K10" s="8"/>
       <c r="N10" s="197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" s="260"/>
       <c r="P10" s="261"/>
@@ -17561,7 +17636,7 @@
       <c r="R10" s="261"/>
       <c r="S10" s="262"/>
       <c r="X10" s="197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="260"/>
       <c r="Z10" s="261"/>
@@ -17576,7 +17651,7 @@
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -17601,7 +17676,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="31"/>
       <c r="L12" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="263">
@@ -17610,7 +17685,7 @@
       <c r="O12" s="264"/>
       <c r="P12" s="265"/>
       <c r="Q12" s="78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -17629,13 +17704,13 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI12" s="89"/>
       <c r="AJ12" s="89"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM12" s="89"/>
       <c r="AN12" s="31"/>
@@ -17656,7 +17731,7 @@
         <v>34</v>
       </c>
       <c r="M13" s="91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N13" s="92"/>
       <c r="O13" s="92"/>
@@ -17665,20 +17740,20 @@
       <c r="R13" s="92"/>
       <c r="S13" s="92"/>
       <c r="T13" s="92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" s="92"/>
       <c r="V13" s="92"/>
       <c r="W13" s="92"/>
       <c r="X13" s="92"/>
       <c r="Y13" s="92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z13" s="92"/>
       <c r="AA13" s="92"/>
       <c r="AB13" s="92"/>
       <c r="AC13" s="92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD13" s="93"/>
       <c r="AE13" s="93"/>
@@ -17687,7 +17762,7 @@
       <c r="AH13" s="93"/>
       <c r="AI13" s="93"/>
       <c r="AJ13" s="91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" s="93"/>
       <c r="AL13" s="93"/>
@@ -17719,7 +17794,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
       <c r="T14" s="96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U14" s="31"/>
       <c r="V14" s="31"/>
@@ -17727,12 +17802,12 @@
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="199" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="198" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD14" s="31"/>
       <c r="AE14" s="31"/>
@@ -17741,7 +17816,7 @@
       <c r="AH14" s="31"/>
       <c r="AI14" s="31"/>
       <c r="AJ14" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
@@ -17773,7 +17848,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
       <c r="T15" s="96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U15" s="31"/>
       <c r="V15" s="31"/>
@@ -17786,7 +17861,7 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
       <c r="AC15" s="198" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD15" s="31"/>
       <c r="AE15" s="31"/>
@@ -17795,7 +17870,7 @@
       <c r="AH15" s="31"/>
       <c r="AI15" s="31"/>
       <c r="AJ15" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
@@ -17857,7 +17932,7 @@
       <c r="J17" s="87"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -18102,7 +18177,7 @@
     <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="256" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="256"/>
       <c r="E23" s="256"/>
@@ -18146,7 +18221,7 @@
     <row r="24" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="257" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="257"/>
       <c r="E24" s="257"/>
@@ -18190,7 +18265,7 @@
     <row r="25" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="257" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="258"/>
       <c r="E25" s="258"/>
@@ -18232,7 +18307,7 @@
     <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -18275,7 +18350,7 @@
     <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="74"/>
       <c r="C27" s="105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -18360,7 +18435,7 @@
     </row>
     <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -18378,7 +18453,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
@@ -18406,7 +18481,7 @@
     </row>
     <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -18434,18 +18509,18 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC30" s="111"/>
       <c r="AD30" s="112"/>
       <c r="AF30" s="110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" s="111"/>
       <c r="AH30" s="111"/>
       <c r="AI30" s="112"/>
       <c r="AK30" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL30" s="111"/>
       <c r="AM30" s="111"/>
@@ -18454,7 +18529,7 @@
     </row>
     <row r="31" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -18498,7 +18573,7 @@
     </row>
     <row r="34" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="14"/>
       <c r="AD34" s="31"/>
@@ -19060,7 +19135,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19090,11 +19165,11 @@
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="132"/>
       <c r="D3" s="132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
@@ -19103,11 +19178,11 @@
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="135"/>
       <c r="D4" s="136" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135"/>
@@ -19119,22 +19194,22 @@
         <v>34</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="139" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -19142,22 +19217,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="142" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="E6" s="142" t="s">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" s="142">
         <v>30</v>
       </c>
       <c r="H6" s="143" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -19165,22 +19240,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="142" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="D7" s="142" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="E7" s="142" t="s">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="F7" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" s="143" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -19188,22 +19263,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="E8" s="142" t="s">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="F8" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" s="143" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -19211,20 +19286,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>407</v>
-      </c>
-      <c r="D9" s="142"/>
+        <v>432</v>
+      </c>
+      <c r="D9" s="142" t="s">
+        <v>443</v>
+      </c>
       <c r="E9" s="142" t="s">
         <v>138</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="143" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -19232,22 +19309,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>408</v>
+        <v>116</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E10" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="143" t="s">
-        <v>425</v>
+        <v>88</v>
+      </c>
+      <c r="H10" s="144" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -19255,22 +19332,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="142" t="s">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="D11" s="142" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" s="142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="142">
         <v>10</v>
       </c>
-      <c r="H11" s="143" t="s">
-        <v>426</v>
+      <c r="H11" s="144" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -19278,22 +19355,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>415</v>
+        <v>59</v>
       </c>
       <c r="E12" s="142" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="142">
         <v>10</v>
       </c>
-      <c r="H12" s="143" t="s">
-        <v>420</v>
+      <c r="H12" s="144" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -19301,22 +19378,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>416</v>
+        <v>60</v>
       </c>
       <c r="E13" s="142" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="G13" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="143" t="s">
-        <v>421</v>
+        <v>88</v>
+      </c>
+      <c r="H13" s="144" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -19324,22 +19401,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>129</v>
+        <v>436</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" s="142" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="143" t="s">
-        <v>422</v>
+        <v>88</v>
+      </c>
+      <c r="H14" s="144" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -19347,22 +19424,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="E15" s="142" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="F15" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="142">
         <v>30</v>
       </c>
-      <c r="H15" s="143" t="s">
-        <v>417</v>
+      <c r="H15" s="144" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -19370,50 +19447,92 @@
         <v>11</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" s="142" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="143" t="s">
-        <v>423</v>
+        <v>88</v>
+      </c>
+      <c r="H16" s="144" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="144"/>
+      <c r="B17" s="141">
+        <v>12</v>
+      </c>
+      <c r="C17" s="142" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="144" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="144"/>
+      <c r="B18" s="141">
+        <v>13</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="144" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="144"/>
+      <c r="B19" s="141">
+        <v>15</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" s="142" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19" s="142" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="142">
+        <v>30</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="141"/>
@@ -19489,7 +19608,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -19498,7 +19617,7 @@
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="151"/>
       <c r="F31" s="151"/>
@@ -19534,7 +19653,7 @@
       <c r="C35" s="155"/>
       <c r="D35" s="155"/>
       <c r="E35" s="156" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -19570,7 +19689,7 @@
       </c>
       <c r="C42" s="158"/>
       <c r="D42" s="158" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="151"/>
       <c r="F42" s="151"/>
@@ -19617,7 +19736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -19665,7 +19784,7 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
@@ -19708,7 +19827,7 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
@@ -19770,7 +19889,7 @@
       <c r="G4" s="226"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -19796,7 +19915,7 @@
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -19854,7 +19973,7 @@
     <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="70"/>
       <c r="C6" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -19865,7 +19984,7 @@
       <c r="J6" s="85"/>
       <c r="K6" s="8"/>
       <c r="L6" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -19900,7 +20019,7 @@
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -19944,7 +20063,7 @@
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -19955,7 +20074,7 @@
       <c r="J8" s="86"/>
       <c r="K8" s="8"/>
       <c r="L8" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="202"/>
@@ -19977,7 +20096,7 @@
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -20014,7 +20133,7 @@
       <c r="AF9" s="31"/>
       <c r="AG9" s="31"/>
       <c r="AH9" s="267" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI9" s="268"/>
       <c r="AJ9" s="268"/>
@@ -20027,7 +20146,7 @@
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -20042,10 +20161,10 @@
       <c r="N10" s="102"/>
       <c r="O10" s="102"/>
       <c r="P10" s="203" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R10" s="102"/>
       <c r="S10" s="102"/>
@@ -20075,7 +20194,7 @@
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74"/>
       <c r="C11" s="63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -20090,10 +20209,10 @@
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="203" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
@@ -20178,10 +20297,10 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="203" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
@@ -20266,10 +20385,10 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="203" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15" s="204" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
@@ -20310,7 +20429,7 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -20343,10 +20462,10 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="203" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R17" s="31"/>
       <c r="S17" s="266">
@@ -20433,10 +20552,10 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
@@ -20477,7 +20596,7 @@
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
       <c r="N20" s="36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O20" s="102"/>
       <c r="P20" s="102"/>
@@ -20552,7 +20671,7 @@
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="256" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="256"/>
       <c r="E22" s="256"/>
@@ -20563,7 +20682,7 @@
       <c r="J22" s="104"/>
       <c r="K22" s="31"/>
       <c r="L22" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -20598,7 +20717,7 @@
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="257" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="257"/>
       <c r="E23" s="257"/>
@@ -20613,10 +20732,10 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R23" s="31"/>
       <c r="S23" s="31"/>
@@ -20646,7 +20765,7 @@
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="74"/>
       <c r="C24" s="257" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="258"/>
       <c r="E24" s="258"/>
@@ -20661,10 +20780,10 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="203" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
@@ -20694,7 +20813,7 @@
     <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="74"/>
       <c r="C25" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -20709,10 +20828,10 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="203" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="198" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
@@ -20741,7 +20860,7 @@
     <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="74"/>
       <c r="C26" s="105" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -20756,10 +20875,10 @@
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="203" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R26" s="31"/>
       <c r="S26" s="266">
@@ -20804,10 +20923,10 @@
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
       <c r="P27" s="203" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
@@ -20846,7 +20965,7 @@
       <c r="J28" s="87"/>
       <c r="K28" s="31"/>
       <c r="L28" s="63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
@@ -20894,10 +21013,10 @@
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
       <c r="P29" s="203" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="198" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
@@ -20940,10 +21059,10 @@
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
       <c r="P30" s="203" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
@@ -21056,7 +21175,7 @@
     </row>
     <row r="33" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -21074,7 +21193,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
@@ -21102,7 +21221,7 @@
     </row>
     <row r="34" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -21130,18 +21249,18 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" s="111"/>
       <c r="AD34" s="112"/>
       <c r="AF34" s="110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG34" s="111"/>
       <c r="AH34" s="111"/>
       <c r="AI34" s="112"/>
       <c r="AK34" s="110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL34" s="111"/>
       <c r="AM34" s="111"/>
@@ -21150,7 +21269,7 @@
     </row>
     <row r="35" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -21194,7 +21313,7 @@
     </row>
     <row r="38" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="14"/>
       <c r="AD38" s="31"/>
